--- a/Reports/AreDifferent/decryption_hotWater/decryption_hotWater.xlsx
+++ b/Reports/AreDifferent/decryption_hotWater/decryption_hotWater.xlsx
@@ -79,9 +79,6 @@
     <t>t1</t>
   </si>
   <si>
-    <t>key($this-&gt;tt1)!==null</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -322,10 +319,13 @@
     <t>$SUM_t1['R_value5']</t>
   </si>
   <si>
+    <t>Объем спр. по норме</t>
+  </si>
+  <si>
     <t>$t1['R_value5']</t>
   </si>
   <si>
-    <t>Объем спр. по норме</t>
+    <t>key( $this-&gt;tt1 ) !== null</t>
   </si>
 </sst>
 </file>
@@ -578,6 +578,21 @@
     <xf numFmtId="4" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,21 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11:T11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -960,51 +960,51 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
+      <c r="A2" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
       <c r="T2" s="38"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A3" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
+      <c r="A3" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
       <c r="T3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1">
@@ -1027,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
@@ -1036,22 +1036,22 @@
         <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K4" s="41" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R4" s="32"/>
       <c r="S4" s="32"/>
@@ -1069,49 +1069,49 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="G5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="55" t="s">
-        <v>92</v>
+      <c r="O5" s="51" t="s">
+        <v>91</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -1120,13 +1120,13 @@
         <v>19</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X5" s="10">
         <v>1</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
@@ -1140,68 +1140,68 @@
         <v>13</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="26"/>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>62</v>
-      </c>
       <c r="L6" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R6" s="40"/>
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
       <c r="V6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="X6" s="13">
         <v>1</v>
       </c>
       <c r="Y6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB6" s="13"/>
       <c r="AC6" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE6" s="14">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" s="6">
         <v>4</v>
@@ -1228,27 +1228,27 @@
       <c r="Y8" s="7"/>
     </row>
     <row r="9" spans="1:31" ht="15.75">
-      <c r="A9" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
+      <c r="A9" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
       <c r="T9" s="39"/>
       <c r="V9" s="7"/>
       <c r="W9" s="35"/>
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -1284,28 +1284,28 @@
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M10" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N10" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>7</v>
@@ -1314,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" s="7"/>
       <c r="AD10" s="7"/>
@@ -1328,63 +1328,63 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="I11" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="J11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="17" t="s">
+      <c r="Q11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="R11" s="17" t="s">
+      <c r="S11" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="52" t="s">
+      <c r="T11" s="48" t="s">
         <v>102</v>
       </c>
       <c r="V11" s="10" t="s">
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="12"/>
@@ -1409,59 +1409,59 @@
         <v>13</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="53" t="s">
-        <v>85</v>
+      <c r="I12" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R12" s="19"/>
       <c r="S12" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="X12" s="13">
         <v>1</v>
@@ -1470,17 +1470,20 @@
         <v>20</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB12" s="13"/>
       <c r="AC12" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD12" s="31" t="s">
         <v>20</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1488,7 +1491,7 @@
         <v>15</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X13">
         <v>3</v>
@@ -1502,12 +1505,12 @@
         <v>18</v>
       </c>
       <c r="AA15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="22:22">
       <c r="V17" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/AreDifferent/decryption_hotWater/decryption_hotWater.xlsx
+++ b/Reports/AreDifferent/decryption_hotWater/decryption_hotWater.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>тариф</t>
   </si>
@@ -217,9 +217,6 @@
     <t>$t2['name_tariff']</t>
   </si>
   <si>
-    <t>Расшифровка начисления по горячему водоснабжению к общему отчёту</t>
-  </si>
-  <si>
     <t>Объем РСО</t>
   </si>
   <si>
@@ -326,14 +323,30 @@
   </si>
   <si>
     <t>key( $this-&gt;tt1 ) !== null</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер ООО "ЭнергоКомпания"</t>
+  </si>
+  <si>
+    <t>Т.В. Скворцова</t>
+  </si>
+  <si>
+    <t>И.о. начальника абонентского сектора</t>
+  </si>
+  <si>
+    <t>Долгова Е.В.</t>
+  </si>
+  <si>
+    <t>"Расшифровка начисления по горячему водоснабжению за " .$this-&gt;H['full_name_month']." ".$this-&gt;H['name_organization']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#\ ###\ ###\ ##0.00;[Red]\-#\ ###\ ##0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -471,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -593,6 +606,10 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,10 +926,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -960,51 +977,51 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
+      <c r="A2" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
       <c r="T2" s="38"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A3" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
+      <c r="A3" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
       <c r="T3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1">
@@ -1027,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>3</v>
@@ -1036,22 +1053,22 @@
         <v>5</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="41" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4" s="32"/>
       <c r="S4" s="32"/>
@@ -1081,13 +1098,13 @@
         <v>49</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>48</v>
@@ -1096,13 +1113,13 @@
         <v>50</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="42" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="42" t="s">
         <v>52</v>
@@ -1111,7 +1128,7 @@
         <v>56</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -1153,27 +1170,27 @@
         <v>58</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="50" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K6" s="26" t="s">
         <v>61</v>
       </c>
       <c r="L6" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="26" t="s">
         <v>62</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R6" s="40"/>
       <c r="S6" s="34"/>
@@ -1228,27 +1245,27 @@
       <c r="Y8" s="7"/>
     </row>
     <row r="9" spans="1:31" ht="15.75">
-      <c r="A9" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="A9" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
       <c r="T9" s="39"/>
       <c r="V9" s="7"/>
       <c r="W9" s="35"/>
@@ -1275,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -1284,28 +1301,28 @@
         <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M10" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N10" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>7</v>
@@ -1314,7 +1331,7 @@
         <v>8</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z10" s="6" t="s">
         <v>18</v>
@@ -1340,13 +1357,13 @@
         <v>27</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>31</v>
@@ -1355,28 +1372,28 @@
         <v>32</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="43" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M11" s="43" t="s">
         <v>37</v>
       </c>
       <c r="N11" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>33</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R11" s="17" t="s">
         <v>34</v>
@@ -1385,7 +1402,7 @@
         <v>35</v>
       </c>
       <c r="T11" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V11" s="10" t="s">
         <v>19</v>
@@ -1397,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="12"/>
@@ -1422,40 +1439,40 @@
         <v>39</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="49" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>44</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R12" s="19"/>
       <c r="S12" s="18" t="s">
         <v>43</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V12" s="13" t="s">
         <v>21</v>
@@ -1487,6 +1504,11 @@
       </c>
     </row>
     <row r="13" spans="1:31">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="V13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1494,22 +1516,58 @@
         <v>25</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="15" spans="1:31">
-      <c r="Z15" s="6" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="Z18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AA15" s="15" t="s">
+      <c r="AA18" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="22:22">
-      <c r="V17" s="16" t="s">
+    <row r="20" spans="1:27">
+      <c r="V20" s="16" t="s">
         <v>26</v>
       </c>
     </row>
